--- a/resultados/pretratamiento-tablas-control/pretrat-francia-elo-dificil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-francia-elo-dificil-dificultad.xlsx
@@ -121,7 +121,7 @@
     <t>49.159 (88)</t>
   </si>
   <si>
-    <t>11.455 (88)</t>
+    <t>11.466 (88)</t>
   </si>
   <si>
     <t>11.159 (88)</t>
@@ -172,7 +172,7 @@
     <t>44.224 (76)</t>
   </si>
   <si>
-    <t>12.184 (76)</t>
+    <t>12.171 (76)</t>
   </si>
   <si>
     <t>12.421 (76)</t>
@@ -1012,7 +1012,7 @@
     <t>45.438 (96)</t>
   </si>
   <si>
-    <t>12.177 (96)</t>
+    <t>12.167 (96)</t>
   </si>
   <si>
     <t>11.625 (96)</t>
@@ -1066,7 +1066,7 @@
     <t>44.45 (20)</t>
   </si>
   <si>
-    <t>11.95 (20)</t>
+    <t>12.0 (20)</t>
   </si>
   <si>
     <t>13.3 (20)</t>
@@ -1171,7 +1171,7 @@
     <t>45.862 (80)</t>
   </si>
   <si>
-    <t>11.712 (80)</t>
+    <t>11.7 (80)</t>
   </si>
   <si>
     <t>11.638 (80)</t>
@@ -1222,7 +1222,7 @@
     <t>44.512 (43)</t>
   </si>
   <si>
-    <t>13.209 (43)</t>
+    <t>13.233 (43)</t>
   </si>
   <si>
     <t>12.558 (43)</t>
@@ -1375,7 +1375,7 @@
     <t>46.561 (82)</t>
   </si>
   <si>
-    <t>12.012 (82)</t>
+    <t>12.0 (82)</t>
   </si>
   <si>
     <t>12.049 (82)</t>
@@ -1429,7 +1429,7 @@
     <t>45.291 (55)</t>
   </si>
   <si>
-    <t>12.455 (55)</t>
+    <t>12.473 (55)</t>
   </si>
   <si>
     <t>12.327 (55)</t>
@@ -1588,7 +1588,7 @@
     <t>44.989 (88)</t>
   </si>
   <si>
-    <t>12.455 (88)</t>
+    <t>12.443 (88)</t>
   </si>
   <si>
     <t>12.33 (88)</t>
@@ -1642,7 +1642,7 @@
     <t>43.2 (25)</t>
   </si>
   <si>
-    <t>12.52 (25)</t>
+    <t>12.56 (25)</t>
   </si>
   <si>
     <t>12.84 (25)</t>
@@ -1750,7 +1750,7 @@
     <t>45.682 (85)</t>
   </si>
   <si>
-    <t>12.376 (85)</t>
+    <t>12.365 (85)</t>
   </si>
   <si>
     <t>12.212 (85)</t>
@@ -1858,7 +1858,7 @@
     <t>35.0 (3)</t>
   </si>
   <si>
-    <t>9.0 (3)</t>
+    <t>9.333 (3)</t>
   </si>
   <si>
     <t>13.0 (3)</t>
@@ -1957,7 +1957,7 @@
     <t>47.141 (64)</t>
   </si>
   <si>
-    <t>11.797 (64)</t>
+    <t>11.781 (64)</t>
   </si>
   <si>
     <t>12.484 (64)</t>
@@ -2065,7 +2065,7 @@
     <t>45.4 (10)</t>
   </si>
   <si>
-    <t>11.2 (10)</t>
+    <t>11.3 (10)</t>
   </si>
   <si>
     <t>12.0 (10)</t>
@@ -2164,7 +2164,7 @@
     <t>45.885 (52)</t>
   </si>
   <si>
-    <t>11.827 (52)</t>
+    <t>11.808 (52)</t>
   </si>
   <si>
     <t>12.5 (52)</t>
@@ -2266,7 +2266,7 @@
     <t>43.125 (16)</t>
   </si>
   <si>
-    <t>12.125 (16)</t>
+    <t>12.188 (16)</t>
   </si>
   <si>
     <t>13.312 (16)</t>
@@ -2368,7 +2368,7 @@
     <t>45.099 (81)</t>
   </si>
   <si>
-    <t>12.593 (81)</t>
+    <t>12.58 (81)</t>
   </si>
   <si>
     <t>13.012 (81)</t>
@@ -2422,7 +2422,7 @@
     <t>41.844 (32)</t>
   </si>
   <si>
-    <t>13.219 (32)</t>
+    <t>13.25 (32)</t>
   </si>
   <si>
     <t>12.625 (32)</t>
@@ -2566,7 +2566,7 @@
     <t>45.873 (71)</t>
   </si>
   <si>
-    <t>12.704 (71)</t>
+    <t>12.69 (71)</t>
   </si>
   <si>
     <t>12.549 (71)</t>
@@ -2671,7 +2671,7 @@
     <t>40.714 (7)</t>
   </si>
   <si>
-    <t>12.143 (7)</t>
+    <t>12.286 (7)</t>
   </si>
   <si>
     <t>11.571 (7)</t>
@@ -2776,7 +2776,7 @@
     <t>46.822 (45)</t>
   </si>
   <si>
-    <t>12.133 (45)</t>
+    <t>12.111 (45)</t>
   </si>
   <si>
     <t>12.844 (45)</t>
@@ -2881,7 +2881,7 @@
     <t>44.0 (11)</t>
   </si>
   <si>
-    <t>12.0 (11)</t>
+    <t>12.091 (11)</t>
   </si>
   <si>
     <t>11.818 (11)</t>
@@ -3028,7 +3028,7 @@
     <t>45.8 (30)</t>
   </si>
   <si>
-    <t>12.2 (30)</t>
+    <t>12.167 (30)</t>
   </si>
   <si>
     <t>13.4 (30)</t>
@@ -3130,7 +3130,7 @@
     <t>43.692 (26)</t>
   </si>
   <si>
-    <t>13.077 (26)</t>
+    <t>13.115 (26)</t>
   </si>
   <si>
     <t>13.615 (26)</t>
@@ -3635,10 +3635,10 @@
         <v>5.033</v>
       </c>
       <c r="H2">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="I2">
-        <v>0.24</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3664,10 +3664,10 @@
         <v>-3.174</v>
       </c>
       <c r="H3">
-        <v>-0.882</v>
+        <v>-0.926</v>
       </c>
       <c r="I3">
-        <v>0.379</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3693,10 +3693,10 @@
         <v>0.358</v>
       </c>
       <c r="H4">
-        <v>0.064</v>
+        <v>0.045</v>
       </c>
       <c r="I4">
-        <v>0.949</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3722,10 +3722,10 @@
         <v>-1.68</v>
       </c>
       <c r="H5">
-        <v>-0.397</v>
+        <v>-0.329</v>
       </c>
       <c r="I5">
-        <v>0.6919999999999999</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3751,10 +3751,10 @@
         <v>5.017</v>
       </c>
       <c r="H6">
-        <v>1.339</v>
+        <v>1.372</v>
       </c>
       <c r="I6">
-        <v>0.183</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3780,10 +3780,10 @@
         <v>-0.361</v>
       </c>
       <c r="H7">
-        <v>-0.093</v>
+        <v>-0.083</v>
       </c>
       <c r="I7">
-        <v>0.926</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3806,13 +3806,13 @@
         <v>0.036</v>
       </c>
       <c r="G8">
-        <v>-1.792</v>
+        <v>-1.878</v>
       </c>
       <c r="H8">
-        <v>-0.897</v>
+        <v>-0.86</v>
       </c>
       <c r="I8">
-        <v>0.371</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3838,10 +3838,10 @@
         <v>1.076</v>
       </c>
       <c r="H9">
-        <v>0.581</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="I9">
-        <v>0.5620000000000001</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3867,10 +3867,10 @@
         <v>1.354</v>
       </c>
       <c r="H10">
-        <v>0.64</v>
+        <v>0.517</v>
       </c>
       <c r="I10">
-        <v>0.524</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3896,10 +3896,10 @@
         <v>1.225</v>
       </c>
       <c r="H11">
-        <v>0.614</v>
+        <v>0.452</v>
       </c>
       <c r="I11">
-        <v>0.54</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3925,10 +3925,10 @@
         <v>-2.773</v>
       </c>
       <c r="H12">
-        <v>-1.47</v>
+        <v>-1.533</v>
       </c>
       <c r="I12">
-        <v>0.144</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3954,10 +3954,10 @@
         <v>-0.391</v>
       </c>
       <c r="H13">
-        <v>-0.209</v>
+        <v>-0.17</v>
       </c>
       <c r="I13">
-        <v>0.835</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3983,10 +3983,10 @@
         <v>-0.017</v>
       </c>
       <c r="H14">
-        <v>-0.552</v>
+        <v>-0.495</v>
       </c>
       <c r="I14">
-        <v>0.582</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4012,10 +4012,10 @@
         <v>-0.016</v>
       </c>
       <c r="H15">
-        <v>-0.468</v>
+        <v>-0.322</v>
       </c>
       <c r="I15">
-        <v>0.641</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4041,10 +4041,10 @@
         <v>0.013</v>
       </c>
       <c r="H16">
-        <v>0.375</v>
+        <v>0.258</v>
       </c>
       <c r="I16">
-        <v>0.709</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4070,10 +4070,10 @@
         <v>0.048</v>
       </c>
       <c r="H17">
-        <v>1.468</v>
+        <v>1.514</v>
       </c>
       <c r="I17">
-        <v>0.145</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4099,10 +4099,10 @@
         <v>0.011</v>
       </c>
       <c r="H18">
-        <v>0.347</v>
+        <v>0.611</v>
       </c>
       <c r="I18">
-        <v>0.729</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4128,10 +4128,10 @@
         <v>-0.016</v>
       </c>
       <c r="H19">
-        <v>-0.508</v>
+        <v>-0.452</v>
       </c>
       <c r="I19">
-        <v>0.612</v>
+        <v>0.651</v>
       </c>
     </row>
   </sheetData>
@@ -4217,10 +4217,10 @@
         <v>9.976000000000001</v>
       </c>
       <c r="I2">
-        <v>2.124</v>
+        <v>2.211</v>
       </c>
       <c r="J2">
-        <v>0.036</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4249,10 +4249,10 @@
         <v>4.151</v>
       </c>
       <c r="I3">
-        <v>1.115</v>
+        <v>1.331</v>
       </c>
       <c r="J3">
-        <v>0.267</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4281,10 +4281,10 @@
         <v>9.622999999999999</v>
       </c>
       <c r="I4">
-        <v>1.444</v>
+        <v>1.062</v>
       </c>
       <c r="J4">
-        <v>0.152</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4313,10 +4313,10 @@
         <v>-3.03</v>
       </c>
       <c r="I5">
-        <v>-0.594</v>
+        <v>-0.477</v>
       </c>
       <c r="J5">
-        <v>0.554</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4345,10 +4345,10 @@
         <v>1.486</v>
       </c>
       <c r="I6">
-        <v>0.344</v>
+        <v>0.371</v>
       </c>
       <c r="J6">
-        <v>0.732</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4377,10 +4377,10 @@
         <v>-1.648</v>
       </c>
       <c r="I7">
-        <v>-0.37</v>
+        <v>-0.35</v>
       </c>
       <c r="J7">
-        <v>0.712</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4406,13 +4406,13 @@
         <v>0.03</v>
       </c>
       <c r="H8">
-        <v>-2.415</v>
+        <v>-2.336</v>
       </c>
       <c r="I8">
-        <v>-1.042</v>
+        <v>-0.922</v>
       </c>
       <c r="J8">
-        <v>0.3</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4441,10 +4441,10 @@
         <v>-2.868</v>
       </c>
       <c r="I9">
-        <v>-1.359</v>
+        <v>-1.638</v>
       </c>
       <c r="J9">
-        <v>0.177</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4473,10 +4473,10 @@
         <v>-3.551</v>
       </c>
       <c r="I10">
-        <v>-1.414</v>
+        <v>-1.02</v>
       </c>
       <c r="J10">
-        <v>0.16</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4505,10 +4505,10 @@
         <v>3.03</v>
       </c>
       <c r="I11">
-        <v>1.258</v>
+        <v>1.11</v>
       </c>
       <c r="J11">
-        <v>0.211</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4540,7 +4540,7 @@
         <v>-0.489</v>
       </c>
       <c r="J12">
-        <v>0.626</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4569,10 +4569,10 @@
         <v>0.25</v>
       </c>
       <c r="I13">
-        <v>0.117</v>
+        <v>0.106</v>
       </c>
       <c r="J13">
-        <v>0.907</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4601,10 +4601,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I14">
-        <v>-0.233</v>
+        <v>-0.183</v>
       </c>
       <c r="J14">
-        <v>0.8159999999999999</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4633,10 +4633,10 @@
         <v>-0.025</v>
       </c>
       <c r="I15">
-        <v>-0.646</v>
+        <v>-0.665</v>
       </c>
       <c r="J15">
-        <v>0.52</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4665,10 +4665,10 @@
         <v>-0.016</v>
       </c>
       <c r="I16">
-        <v>-0.388</v>
+        <v>-0.373</v>
       </c>
       <c r="J16">
-        <v>0.699</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4697,10 +4697,10 @@
         <v>0.017</v>
       </c>
       <c r="I17">
-        <v>0.482</v>
+        <v>0.401</v>
       </c>
       <c r="J17">
-        <v>0.631</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4729,10 +4729,10 @@
         <v>0.048</v>
       </c>
       <c r="I18">
-        <v>1.32</v>
+        <v>1.602</v>
       </c>
       <c r="J18">
-        <v>0.19</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4761,10 +4761,10 @@
         <v>-0.004</v>
       </c>
       <c r="I19">
-        <v>-0.11</v>
+        <v>-0.092</v>
       </c>
       <c r="J19">
-        <v>0.913</v>
+        <v>0.927</v>
       </c>
     </row>
   </sheetData>
@@ -4850,10 +4850,10 @@
         <v>5.046</v>
       </c>
       <c r="I2">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
       <c r="J2">
-        <v>0.344</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4882,10 +4882,10 @@
         <v>7.998</v>
       </c>
       <c r="I3">
-        <v>1.956</v>
+        <v>2.859</v>
       </c>
       <c r="J3">
-        <v>0.053</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4914,10 +4914,10 @@
         <v>8.353999999999999</v>
       </c>
       <c r="I4">
-        <v>1.124</v>
+        <v>0.837</v>
       </c>
       <c r="J4">
-        <v>0.264</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4946,10 +4946,10 @@
         <v>-0.609</v>
       </c>
       <c r="I5">
-        <v>-0.107</v>
+        <v>-0.095</v>
       </c>
       <c r="J5">
-        <v>0.915</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4978,10 +4978,10 @@
         <v>5.68</v>
       </c>
       <c r="I6">
-        <v>1.19</v>
+        <v>1.672</v>
       </c>
       <c r="J6">
-        <v>0.237</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5010,10 +5010,10 @@
         <v>-0.973</v>
       </c>
       <c r="I7">
-        <v>-0.196</v>
+        <v>-0.171</v>
       </c>
       <c r="J7">
-        <v>0.845</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5039,13 +5039,13 @@
         <v>0.025</v>
       </c>
       <c r="H8">
-        <v>0.018</v>
+        <v>0.089</v>
       </c>
       <c r="I8">
-        <v>0.007</v>
+        <v>0.032</v>
       </c>
       <c r="J8">
-        <v>0.995</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5074,10 +5074,10 @@
         <v>-4.894</v>
       </c>
       <c r="I9">
-        <v>-2.113</v>
+        <v>-2.609</v>
       </c>
       <c r="J9">
-        <v>0.037</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5106,10 +5106,10 @@
         <v>-3.328</v>
       </c>
       <c r="I10">
-        <v>-1.189</v>
+        <v>-0.913</v>
       </c>
       <c r="J10">
-        <v>0.237</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5138,10 +5138,10 @@
         <v>1.949</v>
       </c>
       <c r="I11">
-        <v>0.724</v>
+        <v>0.718</v>
       </c>
       <c r="J11">
-        <v>0.47</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5170,10 +5170,10 @@
         <v>-2.894</v>
       </c>
       <c r="I12">
-        <v>-1.168</v>
+        <v>-1.58</v>
       </c>
       <c r="J12">
-        <v>0.246</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5202,10 +5202,10 @@
         <v>0.473</v>
       </c>
       <c r="I13">
-        <v>0.198</v>
+        <v>0.16</v>
       </c>
       <c r="J13">
-        <v>0.843</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5234,10 +5234,10 @@
         <v>-0.054</v>
       </c>
       <c r="I14">
-        <v>-1.322</v>
+        <v>-1.318</v>
       </c>
       <c r="J14">
-        <v>0.189</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5266,10 +5266,10 @@
         <v>-0.018</v>
       </c>
       <c r="I15">
-        <v>-0.428</v>
+        <v>-0.575</v>
       </c>
       <c r="J15">
-        <v>0.67</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5298,10 +5298,10 @@
         <v>-0.034</v>
       </c>
       <c r="I16">
-        <v>-0.746</v>
+        <v>-0.74</v>
       </c>
       <c r="J16">
-        <v>0.457</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5330,10 +5330,10 @@
         <v>0.016</v>
       </c>
       <c r="I17">
-        <v>0.406</v>
+        <v>0.451</v>
       </c>
       <c r="J17">
-        <v>0.6850000000000001</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5362,10 +5362,10 @@
         <v>0.046</v>
       </c>
       <c r="I18">
-        <v>1.156</v>
+        <v>1.641</v>
       </c>
       <c r="J18">
-        <v>0.251</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5394,10 +5394,10 @@
         <v>-0.007</v>
       </c>
       <c r="I19">
-        <v>-0.166</v>
+        <v>-0.158</v>
       </c>
       <c r="J19">
-        <v>0.869</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
@@ -5483,10 +5483,10 @@
         <v>12.852</v>
       </c>
       <c r="I2">
-        <v>1.946</v>
+        <v>2.031</v>
       </c>
       <c r="J2">
-        <v>0.054</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5515,10 +5515,10 @@
         <v>7.05</v>
       </c>
       <c r="I3">
-        <v>1.355</v>
+        <v>1.67</v>
       </c>
       <c r="J3">
-        <v>0.178</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5547,10 +5547,10 @@
         <v>0.333</v>
       </c>
       <c r="I4">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="J4">
-        <v>0.972</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5579,10 +5579,10 @@
         <v>-0.657</v>
       </c>
       <c r="I5">
-        <v>-0.092</v>
+        <v>-0.102</v>
       </c>
       <c r="J5">
-        <v>0.927</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5611,10 +5611,10 @@
         <v>2.852</v>
       </c>
       <c r="I6">
-        <v>0.471</v>
+        <v>0.668</v>
       </c>
       <c r="J6">
-        <v>0.639</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5643,10 +5643,10 @@
         <v>1.273</v>
       </c>
       <c r="I7">
-        <v>0.204</v>
+        <v>0.183</v>
       </c>
       <c r="J7">
-        <v>0.839</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5672,13 +5672,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>-2.804</v>
+        <v>-2.687</v>
       </c>
       <c r="I8">
-        <v>-0.861</v>
+        <v>-0.829</v>
       </c>
       <c r="J8">
-        <v>0.391</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5707,10 +5707,10 @@
         <v>-3.365</v>
       </c>
       <c r="I9">
-        <v>-1.135</v>
+        <v>-1.212</v>
       </c>
       <c r="J9">
-        <v>0.259</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5739,10 +5739,10 @@
         <v>-2.156</v>
       </c>
       <c r="I10">
-        <v>-0.608</v>
+        <v>-0.478</v>
       </c>
       <c r="J10">
-        <v>0.545</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5771,10 +5771,10 @@
         <v>2.147</v>
       </c>
       <c r="I11">
-        <v>0.633</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="J11">
-        <v>0.528</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5803,10 +5803,10 @@
         <v>-1.427</v>
       </c>
       <c r="I12">
-        <v>-0.454</v>
+        <v>-0.539</v>
       </c>
       <c r="J12">
-        <v>0.651</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5835,10 +5835,10 @@
         <v>0.116</v>
       </c>
       <c r="I13">
-        <v>0.039</v>
+        <v>0.03</v>
       </c>
       <c r="J13">
-        <v>0.969</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5867,10 +5867,10 @@
         <v>-0.049</v>
       </c>
       <c r="I14">
-        <v>-0.949</v>
+        <v>-0.892</v>
       </c>
       <c r="J14">
-        <v>0.345</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5899,10 +5899,10 @@
         <v>-0.058</v>
       </c>
       <c r="I15">
-        <v>-1.086</v>
+        <v>-1.544</v>
       </c>
       <c r="J15">
-        <v>0.28</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5931,10 +5931,10 @@
         <v>-0.026</v>
       </c>
       <c r="I16">
-        <v>-0.461</v>
+        <v>-0.457</v>
       </c>
       <c r="J16">
-        <v>0.645</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5963,10 +5963,10 @@
         <v>0.03</v>
       </c>
       <c r="I17">
-        <v>0.598</v>
+        <v>0.708</v>
       </c>
       <c r="J17">
-        <v>0.551</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5995,10 +5995,10 @@
         <v>0.079</v>
       </c>
       <c r="I18">
-        <v>1.559</v>
+        <v>2.066</v>
       </c>
       <c r="J18">
-        <v>0.122</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6027,10 +6027,10 @@
         <v>-0.026</v>
       </c>
       <c r="I19">
-        <v>-0.524</v>
+        <v>-0.463</v>
       </c>
       <c r="J19">
-        <v>0.601</v>
+        <v>0.643</v>
       </c>
     </row>
   </sheetData>
@@ -6116,10 +6116,10 @@
         <v>1.554</v>
       </c>
       <c r="I2">
-        <v>0.415</v>
+        <v>0.44</v>
       </c>
       <c r="J2">
-        <v>0.679</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6148,10 +6148,10 @@
         <v>3.934</v>
       </c>
       <c r="I3">
-        <v>1.382</v>
+        <v>1.255</v>
       </c>
       <c r="J3">
-        <v>0.17</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6180,10 +6180,10 @@
         <v>2.262</v>
       </c>
       <c r="I4">
-        <v>0.415</v>
+        <v>0.334</v>
       </c>
       <c r="J4">
-        <v>0.679</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6212,10 +6212,10 @@
         <v>-5.511</v>
       </c>
       <c r="I5">
-        <v>-1.406</v>
+        <v>-1.502</v>
       </c>
       <c r="J5">
-        <v>0.163</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6244,10 +6244,10 @@
         <v>1.469</v>
       </c>
       <c r="I6">
-        <v>0.427</v>
+        <v>0.507</v>
       </c>
       <c r="J6">
-        <v>0.67</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6276,10 +6276,10 @@
         <v>-1.533</v>
       </c>
       <c r="I7">
-        <v>-0.447</v>
+        <v>-0.497</v>
       </c>
       <c r="J7">
-        <v>0.656</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6305,13 +6305,13 @@
         <v>0.049</v>
       </c>
       <c r="H8">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="I8">
-        <v>0.227</v>
+        <v>0.247</v>
       </c>
       <c r="J8">
-        <v>0.821</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6340,10 +6340,10 @@
         <v>-2.215</v>
       </c>
       <c r="I9">
-        <v>-1.301</v>
+        <v>-1.208</v>
       </c>
       <c r="J9">
-        <v>0.196</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6372,10 +6372,10 @@
         <v>-0.542</v>
       </c>
       <c r="I10">
-        <v>-0.263</v>
+        <v>-0.202</v>
       </c>
       <c r="J10">
-        <v>0.793</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6404,10 +6404,10 @@
         <v>3.244</v>
       </c>
       <c r="I11">
-        <v>1.682</v>
+        <v>1.619</v>
       </c>
       <c r="J11">
-        <v>0.096</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6436,10 +6436,10 @@
         <v>-0.677</v>
       </c>
       <c r="I12">
-        <v>-0.37</v>
+        <v>-0.373</v>
       </c>
       <c r="J12">
-        <v>0.712</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6468,10 +6468,10 @@
         <v>0.027</v>
       </c>
       <c r="I13">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="J13">
-        <v>0.988</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6500,10 +6500,10 @@
         <v>-0.038</v>
       </c>
       <c r="I14">
-        <v>-1.326</v>
+        <v>-1.15</v>
       </c>
       <c r="J14">
-        <v>0.188</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6532,10 +6532,10 @@
         <v>-0.016</v>
       </c>
       <c r="I15">
-        <v>-0.518</v>
+        <v>-0.413</v>
       </c>
       <c r="J15">
-        <v>0.606</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6564,10 +6564,10 @@
         <v>-0.029</v>
       </c>
       <c r="I16">
-        <v>-0.958</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="J16">
-        <v>0.341</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6596,10 +6596,10 @@
         <v>-0.008</v>
       </c>
       <c r="I17">
-        <v>-0.272</v>
+        <v>-0.268</v>
       </c>
       <c r="J17">
-        <v>0.786</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6628,10 +6628,10 @@
         <v>0.005</v>
       </c>
       <c r="I18">
-        <v>0.164</v>
+        <v>0.186</v>
       </c>
       <c r="J18">
-        <v>0.87</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6660,10 +6660,10 @@
         <v>0.024</v>
       </c>
       <c r="I19">
-        <v>0.851</v>
+        <v>0.875</v>
       </c>
       <c r="J19">
-        <v>0.397</v>
+        <v>0.382</v>
       </c>
     </row>
   </sheetData>
@@ -6749,10 +6749,10 @@
         <v>7.762</v>
       </c>
       <c r="I2">
-        <v>1.783</v>
+        <v>1.734</v>
       </c>
       <c r="J2">
-        <v>0.078</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6781,10 +6781,10 @@
         <v>3.352</v>
       </c>
       <c r="I3">
-        <v>0.992</v>
+        <v>1.013</v>
       </c>
       <c r="J3">
-        <v>0.324</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6813,10 +6813,10 @@
         <v>8.919</v>
       </c>
       <c r="I4">
-        <v>1.396</v>
+        <v>1.041</v>
       </c>
       <c r="J4">
-        <v>0.166</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6845,10 +6845,10 @@
         <v>-6.004</v>
       </c>
       <c r="I5">
-        <v>-1.294</v>
+        <v>-1.381</v>
       </c>
       <c r="J5">
-        <v>0.199</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6877,10 +6877,10 @@
         <v>0.669</v>
       </c>
       <c r="I6">
-        <v>0.164</v>
+        <v>0.176</v>
       </c>
       <c r="J6">
-        <v>0.87</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6909,10 +6909,10 @@
         <v>-2.66</v>
       </c>
       <c r="I7">
-        <v>-0.657</v>
+        <v>-0.636</v>
       </c>
       <c r="J7">
-        <v>0.513</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6938,13 +6938,13 @@
         <v>0.035</v>
       </c>
       <c r="H8">
-        <v>-1.441</v>
+        <v>-1.372</v>
       </c>
       <c r="I8">
-        <v>-0.646</v>
+        <v>-0.614</v>
       </c>
       <c r="J8">
-        <v>0.52</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6973,10 +6973,10 @@
         <v>-1.787</v>
       </c>
       <c r="I9">
-        <v>-0.884</v>
+        <v>-0.9409999999999999</v>
       </c>
       <c r="J9">
-        <v>0.379</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7005,10 +7005,10 @@
         <v>-3.795</v>
       </c>
       <c r="I10">
-        <v>-1.575</v>
+        <v>-1.131</v>
       </c>
       <c r="J10">
-        <v>0.119</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7037,10 +7037,10 @@
         <v>3.816</v>
       </c>
       <c r="I11">
-        <v>1.673</v>
+        <v>1.436</v>
       </c>
       <c r="J11">
-        <v>0.098</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7069,10 +7069,10 @@
         <v>0.14</v>
       </c>
       <c r="I12">
-        <v>0.065</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J12">
-        <v>0.949</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7101,10 +7101,10 @@
         <v>0.789</v>
       </c>
       <c r="I13">
-        <v>0.383</v>
+        <v>0.435</v>
       </c>
       <c r="J13">
-        <v>0.703</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7133,10 +7133,10 @@
         <v>-0.02</v>
       </c>
       <c r="I14">
-        <v>-0.582</v>
+        <v>-0.468</v>
       </c>
       <c r="J14">
-        <v>0.5620000000000001</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7165,10 +7165,10 @@
         <v>-0.022</v>
       </c>
       <c r="I15">
-        <v>-0.586</v>
+        <v>-0.542</v>
       </c>
       <c r="J15">
-        <v>0.5590000000000001</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7197,10 +7197,10 @@
         <v>-0.025</v>
       </c>
       <c r="I16">
-        <v>-0.697</v>
+        <v>-0.77</v>
       </c>
       <c r="J16">
-        <v>0.487</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7229,10 +7229,10 @@
         <v>-0.015</v>
       </c>
       <c r="I17">
-        <v>-0.458</v>
+        <v>-0.354</v>
       </c>
       <c r="J17">
-        <v>0.648</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7261,10 +7261,10 @@
         <v>0.027</v>
       </c>
       <c r="I18">
-        <v>0.8120000000000001</v>
+        <v>0.829</v>
       </c>
       <c r="J18">
-        <v>0.419</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7293,10 +7293,10 @@
         <v>0.012</v>
       </c>
       <c r="I19">
-        <v>0.36</v>
+        <v>0.333</v>
       </c>
       <c r="J19">
-        <v>0.719</v>
+        <v>0.739</v>
       </c>
     </row>
   </sheetData>
@@ -7389,10 +7389,10 @@
         <v>1.919</v>
       </c>
       <c r="J2">
-        <v>0.373</v>
+        <v>0.502</v>
       </c>
       <c r="K2">
-        <v>0.71</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7424,10 +7424,10 @@
         <v>8.127000000000001</v>
       </c>
       <c r="J3">
-        <v>2.104</v>
+        <v>2.633</v>
       </c>
       <c r="K3">
-        <v>0.038</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7459,10 +7459,10 @@
         <v>8.093</v>
       </c>
       <c r="J4">
-        <v>1.085</v>
+        <v>0.787</v>
       </c>
       <c r="K4">
-        <v>0.281</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7494,10 +7494,10 @@
         <v>-2.043</v>
       </c>
       <c r="J5">
-        <v>-0.375</v>
+        <v>-0.487</v>
       </c>
       <c r="K5">
-        <v>0.708</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7529,10 +7529,10 @@
         <v>5.532</v>
       </c>
       <c r="J6">
-        <v>1.176</v>
+        <v>1.303</v>
       </c>
       <c r="K6">
-        <v>0.242</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7564,10 +7564,10 @@
         <v>0.37</v>
       </c>
       <c r="J7">
-        <v>0.078</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>0.9379999999999999</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7596,13 +7596,13 @@
         <v>0.026</v>
       </c>
       <c r="I8">
-        <v>2.003</v>
+        <v>2.081</v>
       </c>
       <c r="J8">
-        <v>0.773</v>
+        <v>0.982</v>
       </c>
       <c r="K8">
-        <v>0.441</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7634,10 +7634,10 @@
         <v>-4.191</v>
       </c>
       <c r="J9">
-        <v>-1.805</v>
+        <v>-2.189</v>
       </c>
       <c r="K9">
-        <v>0.074</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7669,10 +7669,10 @@
         <v>-4.09</v>
       </c>
       <c r="J10">
-        <v>-1.457</v>
+        <v>-1</v>
       </c>
       <c r="K10">
-        <v>0.148</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7704,10 +7704,10 @@
         <v>2.093</v>
       </c>
       <c r="J11">
-        <v>0.78</v>
+        <v>0.852</v>
       </c>
       <c r="K11">
-        <v>0.437</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7739,10 +7739,10 @@
         <v>-2.058</v>
       </c>
       <c r="J12">
-        <v>-0.821</v>
+        <v>-0.888</v>
       </c>
       <c r="K12">
-        <v>0.414</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7774,10 +7774,10 @@
         <v>-0.903</v>
       </c>
       <c r="J13">
-        <v>-0.377</v>
+        <v>-0.491</v>
       </c>
       <c r="K13">
-        <v>0.707</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7809,10 +7809,10 @@
         <v>-0.059</v>
       </c>
       <c r="J14">
-        <v>-1.501</v>
+        <v>-1.542</v>
       </c>
       <c r="K14">
-        <v>0.137</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7844,10 +7844,10 @@
         <v>-0.022</v>
       </c>
       <c r="J15">
-        <v>-0.507</v>
+        <v>-0.645</v>
       </c>
       <c r="K15">
-        <v>0.613</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7879,10 +7879,10 @@
         <v>-0.049</v>
       </c>
       <c r="J16">
-        <v>-1.164</v>
+        <v>-1.546</v>
       </c>
       <c r="K16">
-        <v>0.247</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7914,10 +7914,10 @@
         <v>-0.016</v>
       </c>
       <c r="J17">
-        <v>-0.425</v>
+        <v>-0.536</v>
       </c>
       <c r="K17">
-        <v>0.672</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7949,10 +7949,10 @@
         <v>0.037</v>
       </c>
       <c r="J18">
-        <v>0.974</v>
+        <v>1.036</v>
       </c>
       <c r="K18">
-        <v>0.333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7984,10 +7984,10 @@
         <v>0.019</v>
       </c>
       <c r="J19">
-        <v>0.488</v>
+        <v>0.496</v>
       </c>
       <c r="K19">
-        <v>0.627</v>
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -8080,10 +8080,10 @@
         <v>4.218</v>
       </c>
       <c r="J2">
-        <v>0.674</v>
+        <v>0.87</v>
       </c>
       <c r="K2">
-        <v>0.502</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8115,10 +8115,10 @@
         <v>7.499</v>
       </c>
       <c r="J3">
-        <v>1.576</v>
+        <v>1.934</v>
       </c>
       <c r="K3">
-        <v>0.118</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8150,10 +8150,10 @@
         <v>-5.051</v>
       </c>
       <c r="J4">
-        <v>-0.553</v>
+        <v>-0.459</v>
       </c>
       <c r="K4">
-        <v>0.582</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8185,10 +8185,10 @@
         <v>-1.274</v>
       </c>
       <c r="J5">
-        <v>-0.192</v>
+        <v>-0.266</v>
       </c>
       <c r="K5">
-        <v>0.848</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8220,10 +8220,10 @@
         <v>0.601</v>
       </c>
       <c r="J6">
-        <v>0.104</v>
+        <v>0.182</v>
       </c>
       <c r="K6">
-        <v>0.917</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8255,10 +8255,10 @@
         <v>2.452</v>
       </c>
       <c r="J7">
-        <v>0.426</v>
+        <v>0.297</v>
       </c>
       <c r="K7">
-        <v>0.671</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8287,13 +8287,13 @@
         <v>0.018</v>
       </c>
       <c r="I8">
-        <v>0.952</v>
+        <v>1.072</v>
       </c>
       <c r="J8">
-        <v>0.301</v>
+        <v>0.41</v>
       </c>
       <c r="K8">
-        <v>0.764</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8325,10 +8325,10 @@
         <v>-3.108</v>
       </c>
       <c r="J9">
-        <v>-1.086</v>
+        <v>-1.291</v>
       </c>
       <c r="K9">
-        <v>0.28</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8360,10 +8360,10 @@
         <v>0.369</v>
       </c>
       <c r="J10">
-        <v>0.106</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>0.915</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8395,10 +8395,10 @@
         <v>1.489</v>
       </c>
       <c r="J11">
-        <v>0.454</v>
+        <v>0.473</v>
       </c>
       <c r="K11">
-        <v>0.651</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8430,10 +8430,10 @@
         <v>0.589</v>
       </c>
       <c r="J12">
-        <v>0.192</v>
+        <v>0.289</v>
       </c>
       <c r="K12">
-        <v>0.848</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8465,10 +8465,10 @@
         <v>-1.526</v>
       </c>
       <c r="J13">
-        <v>-0.522</v>
+        <v>-0.433</v>
       </c>
       <c r="K13">
-        <v>0.603</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8500,10 +8500,10 @@
         <v>-0.048</v>
       </c>
       <c r="J14">
-        <v>-0.977</v>
+        <v>-0.997</v>
       </c>
       <c r="K14">
-        <v>0.331</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8535,10 +8535,10 @@
         <v>-0.03</v>
       </c>
       <c r="J15">
-        <v>-0.5629999999999999</v>
+        <v>-0.61</v>
       </c>
       <c r="K15">
-        <v>0.575</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8570,10 +8570,10 @@
         <v>-0.037</v>
       </c>
       <c r="J16">
-        <v>-0.729</v>
+        <v>-0.894</v>
       </c>
       <c r="K16">
-        <v>0.468</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8605,10 +8605,10 @@
         <v>-0.024</v>
       </c>
       <c r="J17">
-        <v>-0.507</v>
+        <v>-0.627</v>
       </c>
       <c r="K17">
-        <v>0.613</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8640,10 +8640,10 @@
         <v>0.027</v>
       </c>
       <c r="J18">
-        <v>0.575</v>
+        <v>0.627</v>
       </c>
       <c r="K18">
-        <v>0.5669999999999999</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8675,10 +8675,10 @@
         <v>-0.005</v>
       </c>
       <c r="J19">
-        <v>-0.099</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="K19">
-        <v>0.922</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -8757,10 +8757,10 @@
         <v>10.661</v>
       </c>
       <c r="H2">
-        <v>1.874</v>
+        <v>1.705</v>
       </c>
       <c r="I2">
-        <v>0.063</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8786,10 +8786,10 @@
         <v>-4.569</v>
       </c>
       <c r="H3">
-        <v>-0.944</v>
+        <v>-0.782</v>
       </c>
       <c r="I3">
-        <v>0.347</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8815,10 +8815,10 @@
         <v>7.925</v>
       </c>
       <c r="H4">
-        <v>1.057</v>
+        <v>0.717</v>
       </c>
       <c r="I4">
-        <v>0.292</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8844,10 +8844,10 @@
         <v>-0.256</v>
       </c>
       <c r="H5">
-        <v>-0.045</v>
+        <v>-0.042</v>
       </c>
       <c r="I5">
-        <v>0.964</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8873,10 +8873,10 @@
         <v>5.92</v>
       </c>
       <c r="H6">
-        <v>1.173</v>
+        <v>1.947</v>
       </c>
       <c r="I6">
-        <v>0.243</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8902,10 +8902,10 @@
         <v>-1.466</v>
       </c>
       <c r="H7">
-        <v>-0.281</v>
+        <v>-0.251</v>
       </c>
       <c r="I7">
-        <v>0.779</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8928,13 +8928,13 @@
         <v>0.02</v>
       </c>
       <c r="G8">
-        <v>-3.408</v>
+        <v>-3.437</v>
       </c>
       <c r="H8">
-        <v>-1.273</v>
+        <v>-1.144</v>
       </c>
       <c r="I8">
-        <v>0.205</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8960,10 +8960,10 @@
         <v>1.481</v>
       </c>
       <c r="H9">
-        <v>0.595</v>
+        <v>0.478</v>
       </c>
       <c r="I9">
-        <v>0.553</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8989,10 +8989,10 @@
         <v>-1.724</v>
       </c>
       <c r="H10">
-        <v>-0.605</v>
+        <v>-0.493</v>
       </c>
       <c r="I10">
-        <v>0.546</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9018,10 +9018,10 @@
         <v>1.455</v>
       </c>
       <c r="H11">
-        <v>0.542</v>
+        <v>0.449</v>
       </c>
       <c r="I11">
-        <v>0.589</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9047,10 +9047,10 @@
         <v>-4.12</v>
       </c>
       <c r="H12">
-        <v>-1.626</v>
+        <v>-2.647</v>
       </c>
       <c r="I12">
-        <v>0.106</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9076,10 +9076,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="H13">
-        <v>0.372</v>
+        <v>0.313</v>
       </c>
       <c r="I13">
-        <v>0.711</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9105,10 +9105,10 @@
         <v>0.011</v>
       </c>
       <c r="H14">
-        <v>0.25</v>
+        <v>0.253</v>
       </c>
       <c r="I14">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9134,10 +9134,10 @@
         <v>-0.021</v>
       </c>
       <c r="H15">
-        <v>-0.456</v>
+        <v>-0.419</v>
       </c>
       <c r="I15">
-        <v>0.649</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9163,10 +9163,10 @@
         <v>0.013</v>
       </c>
       <c r="H16">
-        <v>0.275</v>
+        <v>0.264</v>
       </c>
       <c r="I16">
-        <v>0.784</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9192,10 +9192,10 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="H17">
-        <v>1.554</v>
+        <v>1.733</v>
       </c>
       <c r="I17">
-        <v>0.123</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9221,10 +9221,10 @@
         <v>0.019</v>
       </c>
       <c r="H18">
-        <v>0.432</v>
+        <v>0.679</v>
       </c>
       <c r="I18">
-        <v>0.666</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9250,10 +9250,10 @@
         <v>-0.054</v>
       </c>
       <c r="H19">
-        <v>-1.322</v>
+        <v>-1.283</v>
       </c>
       <c r="I19">
-        <v>0.189</v>
+        <v>0.199</v>
       </c>
     </row>
   </sheetData>
@@ -9339,10 +9339,10 @@
         <v>6.118</v>
       </c>
       <c r="I2">
-        <v>0.981</v>
+        <v>0.819</v>
       </c>
       <c r="J2">
-        <v>0.329</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9371,10 +9371,10 @@
         <v>0.111</v>
       </c>
       <c r="I3">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="J3">
-        <v>0.983</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9403,10 +9403,10 @@
         <v>6.551</v>
       </c>
       <c r="I4">
-        <v>0.804</v>
+        <v>0.584</v>
       </c>
       <c r="J4">
-        <v>0.423</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9435,10 +9435,10 @@
         <v>-4.379</v>
       </c>
       <c r="I5">
-        <v>-0.709</v>
+        <v>-0.6850000000000001</v>
       </c>
       <c r="J5">
-        <v>0.48</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9467,10 +9467,10 @@
         <v>5.187</v>
       </c>
       <c r="I6">
-        <v>0.945</v>
+        <v>1.047</v>
       </c>
       <c r="J6">
-        <v>0.347</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9499,10 +9499,10 @@
         <v>-2.386</v>
       </c>
       <c r="I7">
-        <v>-0.422</v>
+        <v>-0.354</v>
       </c>
       <c r="J7">
-        <v>0.674</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9528,13 +9528,13 @@
         <v>0.017</v>
       </c>
       <c r="H8">
-        <v>-1.298</v>
+        <v>-1.344</v>
       </c>
       <c r="I8">
-        <v>-0.444</v>
+        <v>-0.376</v>
       </c>
       <c r="J8">
-        <v>0.658</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9563,10 +9563,10 @@
         <v>-1.04</v>
       </c>
       <c r="I9">
-        <v>-0.385</v>
+        <v>-0.321</v>
       </c>
       <c r="J9">
-        <v>0.701</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9595,10 +9595,10 @@
         <v>-1.427</v>
       </c>
       <c r="I10">
-        <v>-0.461</v>
+        <v>-0.422</v>
       </c>
       <c r="J10">
-        <v>0.646</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9627,10 +9627,10 @@
         <v>3.479</v>
       </c>
       <c r="I11">
-        <v>1.2</v>
+        <v>1.057</v>
       </c>
       <c r="J11">
-        <v>0.232</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9659,10 +9659,10 @@
         <v>-3.471</v>
       </c>
       <c r="I12">
-        <v>-1.257</v>
+        <v>-1.338</v>
       </c>
       <c r="J12">
-        <v>0.211</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9691,10 +9691,10 @@
         <v>1.457</v>
       </c>
       <c r="I13">
-        <v>0.534</v>
+        <v>0.471</v>
       </c>
       <c r="J13">
-        <v>0.594</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9723,10 +9723,10 @@
         <v>-0.017</v>
       </c>
       <c r="I14">
-        <v>-0.368</v>
+        <v>-0.49</v>
       </c>
       <c r="J14">
-        <v>0.713</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9755,10 +9755,10 @@
         <v>0.003</v>
       </c>
       <c r="I15">
-        <v>0.063</v>
+        <v>0.073</v>
       </c>
       <c r="J15">
-        <v>0.95</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9787,10 +9787,10 @@
         <v>-0.019</v>
       </c>
       <c r="I16">
-        <v>-0.363</v>
+        <v>-0.306</v>
       </c>
       <c r="J16">
-        <v>0.717</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9819,10 +9819,10 @@
         <v>0.043</v>
       </c>
       <c r="I17">
-        <v>0.897</v>
+        <v>1.015</v>
       </c>
       <c r="J17">
-        <v>0.371</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9851,10 +9851,10 @@
         <v>0.016</v>
       </c>
       <c r="I18">
-        <v>0.346</v>
+        <v>0.498</v>
       </c>
       <c r="J18">
-        <v>0.73</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9883,10 +9883,10 @@
         <v>-0.052</v>
       </c>
       <c r="I19">
-        <v>-1.168</v>
+        <v>-1.057</v>
       </c>
       <c r="J19">
-        <v>0.245</v>
+        <v>0.291</v>
       </c>
     </row>
   </sheetData>
@@ -9972,10 +9972,10 @@
         <v>8.99</v>
       </c>
       <c r="I2">
-        <v>1.187</v>
+        <v>1.105</v>
       </c>
       <c r="J2">
-        <v>0.238</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10004,10 +10004,10 @@
         <v>1.189</v>
       </c>
       <c r="I3">
-        <v>0.185</v>
+        <v>0.188</v>
       </c>
       <c r="J3">
-        <v>0.853</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10036,10 +10036,10 @@
         <v>-0.059</v>
       </c>
       <c r="I4">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="J4">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10068,10 +10068,10 @@
         <v>-5.357</v>
       </c>
       <c r="I5">
-        <v>-0.713</v>
+        <v>-0.746</v>
       </c>
       <c r="J5">
-        <v>0.477</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10100,10 +10100,10 @@
         <v>0.909</v>
       </c>
       <c r="I6">
-        <v>0.136</v>
+        <v>0.146</v>
       </c>
       <c r="J6">
-        <v>0.892</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10132,10 +10132,10 @@
         <v>1.489</v>
       </c>
       <c r="I7">
-        <v>0.216</v>
+        <v>0.228</v>
       </c>
       <c r="J7">
-        <v>0.829</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10161,13 +10161,13 @@
         <v>0.012</v>
       </c>
       <c r="H8">
-        <v>-2.264</v>
+        <v>-2.3</v>
       </c>
       <c r="I8">
-        <v>-0.638</v>
+        <v>-0.594</v>
       </c>
       <c r="J8">
-        <v>0.525</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10196,10 +10196,10 @@
         <v>-0.513</v>
       </c>
       <c r="I9">
-        <v>-0.156</v>
+        <v>-0.134</v>
       </c>
       <c r="J9">
-        <v>0.876</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10228,7 +10228,7 @@
         <v>0.032</v>
       </c>
       <c r="I10">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="J10">
         <v>0.993</v>
@@ -10260,10 +10260,10 @@
         <v>5.652</v>
       </c>
       <c r="I11">
-        <v>1.61</v>
+        <v>1.419</v>
       </c>
       <c r="J11">
-        <v>0.11</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10292,10 +10292,10 @@
         <v>-2.431</v>
       </c>
       <c r="I12">
-        <v>-0.721</v>
+        <v>-0.708</v>
       </c>
       <c r="J12">
-        <v>0.473</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10324,10 +10324,10 @@
         <v>-0.761</v>
       </c>
       <c r="I13">
-        <v>-0.229</v>
+        <v>-0.235</v>
       </c>
       <c r="J13">
-        <v>0.819</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10356,10 +10356,10 @@
         <v>-0.019</v>
       </c>
       <c r="I14">
-        <v>-0.333</v>
+        <v>-0.324</v>
       </c>
       <c r="J14">
-        <v>0.74</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10388,10 +10388,10 @@
         <v>0.048</v>
       </c>
       <c r="I15">
-        <v>0.784</v>
+        <v>0.797</v>
       </c>
       <c r="J15">
-        <v>0.434</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10420,10 +10420,10 @@
         <v>-0.008</v>
       </c>
       <c r="I16">
-        <v>-0.126</v>
+        <v>-0.13</v>
       </c>
       <c r="J16">
-        <v>0.9</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10452,10 +10452,10 @@
         <v>0.032</v>
       </c>
       <c r="I17">
-        <v>0.541</v>
+        <v>0.645</v>
       </c>
       <c r="J17">
-        <v>0.589</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10484,10 +10484,10 @@
         <v>0.035</v>
       </c>
       <c r="I18">
-        <v>0.61</v>
+        <v>0.775</v>
       </c>
       <c r="J18">
-        <v>0.543</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10516,10 +10516,10 @@
         <v>-0.076</v>
       </c>
       <c r="I19">
-        <v>-1.406</v>
+        <v>-1.694</v>
       </c>
       <c r="J19">
-        <v>0.162</v>
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -10598,10 +10598,10 @@
         <v>6.3</v>
       </c>
       <c r="H2">
-        <v>1.581</v>
+        <v>1.396</v>
       </c>
       <c r="I2">
-        <v>0.117</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10627,10 +10627,10 @@
         <v>3.317</v>
       </c>
       <c r="H3">
-        <v>1.026</v>
+        <v>0.822</v>
       </c>
       <c r="I3">
-        <v>0.307</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10656,10 +10656,10 @@
         <v>1.206</v>
       </c>
       <c r="H4">
-        <v>0.22</v>
+        <v>0.207</v>
       </c>
       <c r="I4">
-        <v>0.826</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10685,10 +10685,10 @@
         <v>-0.211</v>
       </c>
       <c r="H5">
-        <v>-0.051</v>
+        <v>-0.042</v>
       </c>
       <c r="I5">
-        <v>0.959</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10714,10 +10714,10 @@
         <v>4.286</v>
       </c>
       <c r="H6">
-        <v>1.168</v>
+        <v>1.416</v>
       </c>
       <c r="I6">
-        <v>0.245</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10743,10 +10743,10 @@
         <v>-3.19</v>
       </c>
       <c r="H7">
-        <v>-0.871</v>
+        <v>-0.706</v>
       </c>
       <c r="I7">
-        <v>0.386</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10769,13 +10769,13 @@
         <v>0.044</v>
       </c>
       <c r="G8">
-        <v>-1.734</v>
+        <v>-1.781</v>
       </c>
       <c r="H8">
-        <v>-0.889</v>
+        <v>-0.734</v>
       </c>
       <c r="I8">
-        <v>0.376</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10801,10 +10801,10 @@
         <v>-1.924</v>
       </c>
       <c r="H9">
-        <v>-1.084</v>
+        <v>-0.866</v>
       </c>
       <c r="I9">
-        <v>0.28</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10830,10 +10830,10 @@
         <v>0.417</v>
       </c>
       <c r="H10">
-        <v>0.201</v>
+        <v>0.192</v>
       </c>
       <c r="I10">
-        <v>0.841</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -10859,10 +10859,10 @@
         <v>0.66</v>
       </c>
       <c r="H11">
-        <v>0.337</v>
+        <v>0.242</v>
       </c>
       <c r="I11">
-        <v>0.737</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10888,10 +10888,10 @@
         <v>-2.19</v>
       </c>
       <c r="H12">
-        <v>-1.187</v>
+        <v>-1.273</v>
       </c>
       <c r="I12">
-        <v>0.238</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10917,10 +10917,10 @@
         <v>0.467</v>
       </c>
       <c r="H13">
-        <v>0.266</v>
+        <v>0.218</v>
       </c>
       <c r="I13">
-        <v>0.791</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -10946,7 +10946,7 @@
         <v>-0.03</v>
       </c>
       <c r="H14">
-        <v>-1.017</v>
+        <v>-1.012</v>
       </c>
       <c r="I14">
         <v>0.311</v>
@@ -10975,10 +10975,10 @@
         <v>0.003</v>
       </c>
       <c r="H15">
-        <v>0.081</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I15">
-        <v>0.9350000000000001</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11004,10 +11004,10 @@
         <v>0.002</v>
       </c>
       <c r="H16">
-        <v>0.055</v>
+        <v>0.042</v>
       </c>
       <c r="I16">
-        <v>0.957</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11033,10 +11033,10 @@
         <v>0.052</v>
       </c>
       <c r="H17">
-        <v>1.713</v>
+        <v>1.98</v>
       </c>
       <c r="I17">
-        <v>0.09</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11062,10 +11062,10 @@
         <v>0.026</v>
       </c>
       <c r="H18">
-        <v>0.875</v>
+        <v>1.154</v>
       </c>
       <c r="I18">
-        <v>0.384</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11091,10 +11091,10 @@
         <v>0.002</v>
       </c>
       <c r="H19">
-        <v>0.066</v>
+        <v>0.055</v>
       </c>
       <c r="I19">
-        <v>0.947</v>
+        <v>0.956</v>
       </c>
     </row>
   </sheetData>
@@ -11173,10 +11173,10 @@
         <v>13.448</v>
       </c>
       <c r="H2">
-        <v>2.469</v>
+        <v>2.385</v>
       </c>
       <c r="I2">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11202,10 +11202,10 @@
         <v>5.181</v>
       </c>
       <c r="H3">
-        <v>1.156</v>
+        <v>1.076</v>
       </c>
       <c r="I3">
-        <v>0.25</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11231,10 +11231,10 @@
         <v>9.868</v>
       </c>
       <c r="H4">
-        <v>1.309</v>
+        <v>1.141</v>
       </c>
       <c r="I4">
-        <v>0.193</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11260,10 +11260,10 @@
         <v>1.227</v>
       </c>
       <c r="H5">
-        <v>0.215</v>
+        <v>0.169</v>
       </c>
       <c r="I5">
-        <v>0.83</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11289,10 +11289,10 @@
         <v>4.667</v>
       </c>
       <c r="H6">
-        <v>0.915</v>
+        <v>1.181</v>
       </c>
       <c r="I6">
-        <v>0.362</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11318,10 +11318,10 @@
         <v>-2.993</v>
       </c>
       <c r="H7">
-        <v>-0.588</v>
+        <v>-0.442</v>
       </c>
       <c r="I7">
-        <v>0.5580000000000001</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11344,13 +11344,13 @@
         <v>0.024</v>
       </c>
       <c r="G8">
-        <v>-3.778</v>
+        <v>-3.758</v>
       </c>
       <c r="H8">
-        <v>-1.403</v>
+        <v>-1.36</v>
       </c>
       <c r="I8">
-        <v>0.163</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11376,10 +11376,10 @@
         <v>-3.423</v>
       </c>
       <c r="H9">
-        <v>-1.395</v>
+        <v>-1.275</v>
       </c>
       <c r="I9">
-        <v>0.166</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11405,10 +11405,10 @@
         <v>-3.177</v>
       </c>
       <c r="H10">
-        <v>-1.106</v>
+        <v>-1.027</v>
       </c>
       <c r="I10">
-        <v>0.271</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11434,10 +11434,10 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="H11">
-        <v>0.206</v>
+        <v>0.165</v>
       </c>
       <c r="I11">
-        <v>0.837</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11463,10 +11463,10 @@
         <v>-2.766</v>
       </c>
       <c r="H12">
-        <v>-1.08</v>
+        <v>-1.39</v>
       </c>
       <c r="I12">
-        <v>0.283</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11492,10 +11492,10 @@
         <v>0.992</v>
       </c>
       <c r="H13">
-        <v>0.407</v>
+        <v>0.316</v>
       </c>
       <c r="I13">
-        <v>0.6850000000000001</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11521,7 +11521,7 @@
         <v>0.001</v>
       </c>
       <c r="H14">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="I14">
         <v>0.987</v>
@@ -11550,10 +11550,10 @@
         <v>-0.012</v>
       </c>
       <c r="H15">
-        <v>-0.272</v>
+        <v>-0.244</v>
       </c>
       <c r="I15">
-        <v>0.786</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11579,10 +11579,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="H16">
-        <v>-0.204</v>
+        <v>-0.176</v>
       </c>
       <c r="I16">
-        <v>0.839</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11608,10 +11608,10 @@
         <v>0.082</v>
       </c>
       <c r="H17">
-        <v>1.967</v>
+        <v>1.746</v>
       </c>
       <c r="I17">
-        <v>0.052</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11637,10 +11637,10 @@
         <v>0.063</v>
       </c>
       <c r="H18">
-        <v>1.553</v>
+        <v>2.123</v>
       </c>
       <c r="I18">
-        <v>0.123</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11666,10 +11666,10 @@
         <v>-0.022</v>
       </c>
       <c r="H19">
-        <v>-0.538</v>
+        <v>-0.416</v>
       </c>
       <c r="I19">
-        <v>0.591</v>
+        <v>0.677</v>
       </c>
     </row>
   </sheetData>
@@ -11755,10 +11755,10 @@
         <v>6.111</v>
       </c>
       <c r="I2">
-        <v>1.049</v>
+        <v>0.95</v>
       </c>
       <c r="J2">
-        <v>0.296</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11787,10 +11787,10 @@
         <v>7.79</v>
       </c>
       <c r="I3">
-        <v>1.672</v>
+        <v>1.588</v>
       </c>
       <c r="J3">
-        <v>0.097</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11819,10 +11819,10 @@
         <v>4.222</v>
       </c>
       <c r="I4">
-        <v>0.532</v>
+        <v>0.517</v>
       </c>
       <c r="J4">
-        <v>0.596</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11851,10 +11851,10 @@
         <v>0.745</v>
       </c>
       <c r="I5">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
       <c r="J5">
-        <v>0.901</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11883,10 +11883,10 @@
         <v>7.884</v>
       </c>
       <c r="I6">
-        <v>1.485</v>
+        <v>1.492</v>
       </c>
       <c r="J6">
-        <v>0.14</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11915,10 +11915,10 @@
         <v>-2.959</v>
       </c>
       <c r="I7">
-        <v>-0.555</v>
+        <v>-0.421</v>
       </c>
       <c r="J7">
-        <v>0.58</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11944,13 +11944,13 @@
         <v>0.021</v>
       </c>
       <c r="H8">
-        <v>-0.294</v>
+        <v>-0.284</v>
       </c>
       <c r="I8">
-        <v>-0.103</v>
+        <v>-0.083</v>
       </c>
       <c r="J8">
-        <v>0.918</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11979,10 +11979,10 @@
         <v>-4.763</v>
       </c>
       <c r="I9">
-        <v>-1.867</v>
+        <v>-1.746</v>
       </c>
       <c r="J9">
-        <v>0.065</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12011,10 +12011,10 @@
         <v>-1.41</v>
       </c>
       <c r="I10">
-        <v>-0.467</v>
+        <v>-0.54</v>
       </c>
       <c r="J10">
-        <v>0.641</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12043,10 +12043,10 @@
         <v>0.749</v>
       </c>
       <c r="I11">
-        <v>0.264</v>
+        <v>0.241</v>
       </c>
       <c r="J11">
-        <v>0.792</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12075,10 +12075,10 @@
         <v>-3.94</v>
       </c>
       <c r="I12">
-        <v>-1.476</v>
+        <v>-1.823</v>
       </c>
       <c r="J12">
-        <v>0.143</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12107,10 +12107,10 @@
         <v>1.048</v>
       </c>
       <c r="I13">
-        <v>0.411</v>
+        <v>0.334</v>
       </c>
       <c r="J13">
-        <v>0.6820000000000001</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12139,10 +12139,10 @@
         <v>-0.044</v>
       </c>
       <c r="I14">
-        <v>-1.051</v>
+        <v>-1.34</v>
       </c>
       <c r="J14">
-        <v>0.295</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12171,10 +12171,10 @@
         <v>-0</v>
       </c>
       <c r="I15">
-        <v>-0.01</v>
+        <v>-0.013</v>
       </c>
       <c r="J15">
-        <v>0.992</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12203,10 +12203,10 @@
         <v>-0.046</v>
       </c>
       <c r="I16">
-        <v>-0.958</v>
+        <v>-0.762</v>
       </c>
       <c r="J16">
-        <v>0.34</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12235,10 +12235,10 @@
         <v>0.057</v>
       </c>
       <c r="I17">
-        <v>1.293</v>
+        <v>1.503</v>
       </c>
       <c r="J17">
-        <v>0.199</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12267,10 +12267,10 @@
         <v>0.053</v>
       </c>
       <c r="I18">
-        <v>1.251</v>
+        <v>1.412</v>
       </c>
       <c r="J18">
-        <v>0.214</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12299,10 +12299,10 @@
         <v>-0.015</v>
       </c>
       <c r="I19">
-        <v>-0.351</v>
+        <v>-0.336</v>
       </c>
       <c r="J19">
-        <v>0.726</v>
+        <v>0.737</v>
       </c>
     </row>
   </sheetData>
@@ -12388,10 +12388,10 @@
         <v>13.698</v>
       </c>
       <c r="I2">
-        <v>1.881</v>
+        <v>1.783</v>
       </c>
       <c r="J2">
-        <v>0.062</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12420,10 +12420,10 @@
         <v>8.423</v>
       </c>
       <c r="I3">
-        <v>1.426</v>
+        <v>1.396</v>
       </c>
       <c r="J3">
-        <v>0.157</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12452,10 +12452,10 @@
         <v>-5.332</v>
       </c>
       <c r="I4">
-        <v>-0.532</v>
+        <v>-0.636</v>
       </c>
       <c r="J4">
-        <v>0.596</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12484,10 +12484,10 @@
         <v>-1.101</v>
       </c>
       <c r="I5">
-        <v>-0.146</v>
+        <v>-0.135</v>
       </c>
       <c r="J5">
-        <v>0.884</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12516,10 +12516,10 @@
         <v>2.386</v>
       </c>
       <c r="I6">
-        <v>0.352</v>
+        <v>0.447</v>
       </c>
       <c r="J6">
-        <v>0.725</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12548,10 +12548,10 @@
         <v>-0.767</v>
       </c>
       <c r="I7">
-        <v>-0.114</v>
+        <v>-0.118</v>
       </c>
       <c r="J7">
-        <v>0.91</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12577,13 +12577,13 @@
         <v>0.014</v>
       </c>
       <c r="H8">
-        <v>-3.085</v>
+        <v>-3.045</v>
       </c>
       <c r="I8">
-        <v>-0.862</v>
+        <v>-0.771</v>
       </c>
       <c r="J8">
-        <v>0.391</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12612,10 +12612,10 @@
         <v>-3.905</v>
       </c>
       <c r="I9">
-        <v>-1.201</v>
+        <v>-1.084</v>
       </c>
       <c r="J9">
-        <v>0.232</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12644,10 +12644,10 @@
         <v>0.369</v>
       </c>
       <c r="I10">
-        <v>0.097</v>
+        <v>0.12</v>
       </c>
       <c r="J10">
-        <v>0.923</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12676,10 +12676,10 @@
         <v>1.962</v>
       </c>
       <c r="I11">
-        <v>0.547</v>
+        <v>0.496</v>
       </c>
       <c r="J11">
-        <v>0.585</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12708,10 +12708,10 @@
         <v>-1.299</v>
       </c>
       <c r="I12">
-        <v>-0.382</v>
+        <v>-0.518</v>
       </c>
       <c r="J12">
-        <v>0.703</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12740,7 +12740,7 @@
         <v>0.068</v>
       </c>
       <c r="I13">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="J13">
         <v>0.983</v>
@@ -12772,10 +12772,10 @@
         <v>-0.052</v>
       </c>
       <c r="I14">
-        <v>-0.981</v>
+        <v>-1.062</v>
       </c>
       <c r="J14">
-        <v>0.329</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12804,7 +12804,7 @@
         <v>-0</v>
       </c>
       <c r="I15">
-        <v>-0.007</v>
+        <v>-0.008</v>
       </c>
       <c r="J15">
         <v>0.994</v>
@@ -12836,10 +12836,10 @@
         <v>-0.042</v>
       </c>
       <c r="I16">
-        <v>-0.6870000000000001</v>
+        <v>-0.612</v>
       </c>
       <c r="J16">
-        <v>0.493</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12868,10 +12868,10 @@
         <v>0.043</v>
       </c>
       <c r="I17">
-        <v>0.773</v>
+        <v>0.92</v>
       </c>
       <c r="J17">
-        <v>0.441</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12900,10 +12900,10 @@
         <v>0.08</v>
       </c>
       <c r="I18">
-        <v>1.503</v>
+        <v>1.435</v>
       </c>
       <c r="J18">
-        <v>0.136</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12932,10 +12932,10 @@
         <v>-0.023</v>
       </c>
       <c r="I19">
-        <v>-0.426</v>
+        <v>-0.36</v>
       </c>
       <c r="J19">
-        <v>0.671</v>
+        <v>0.719</v>
       </c>
     </row>
   </sheetData>
@@ -13014,10 +13014,10 @@
         <v>4.501</v>
       </c>
       <c r="H2">
-        <v>1.164</v>
+        <v>1.125</v>
       </c>
       <c r="I2">
-        <v>0.247</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13043,10 +13043,10 @@
         <v>4.67</v>
       </c>
       <c r="H3">
-        <v>1.555</v>
+        <v>1.418</v>
       </c>
       <c r="I3">
-        <v>0.123</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13072,10 +13072,10 @@
         <v>4.151</v>
       </c>
       <c r="H4">
-        <v>0.763</v>
+        <v>0.59</v>
       </c>
       <c r="I4">
-        <v>0.447</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13101,10 +13101,10 @@
         <v>-1.892</v>
       </c>
       <c r="H5">
-        <v>-0.457</v>
+        <v>-0.358</v>
       </c>
       <c r="I5">
-        <v>0.648</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13130,10 +13130,10 @@
         <v>3.315</v>
       </c>
       <c r="H6">
-        <v>0.949</v>
+        <v>1.249</v>
       </c>
       <c r="I6">
-        <v>0.345</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13159,10 +13159,10 @@
         <v>-2.405</v>
       </c>
       <c r="H7">
-        <v>-0.667</v>
+        <v>-0.622</v>
       </c>
       <c r="I7">
-        <v>0.506</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13185,13 +13185,13 @@
         <v>0.046</v>
       </c>
       <c r="G8">
-        <v>-0.956</v>
+        <v>-0.9320000000000001</v>
       </c>
       <c r="H8">
-        <v>-0.507</v>
+        <v>-0.419</v>
       </c>
       <c r="I8">
-        <v>0.614</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13217,10 +13217,10 @@
         <v>-2.629</v>
       </c>
       <c r="H9">
-        <v>-1.54</v>
+        <v>-1.405</v>
       </c>
       <c r="I9">
-        <v>0.127</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13246,10 +13246,10 @@
         <v>-1.064</v>
       </c>
       <c r="H10">
-        <v>-0.518</v>
+        <v>-0.405</v>
       </c>
       <c r="I10">
-        <v>0.606</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13275,10 +13275,10 @@
         <v>1.795</v>
       </c>
       <c r="H11">
-        <v>0.916</v>
+        <v>0.725</v>
       </c>
       <c r="I11">
-        <v>0.362</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13304,10 +13304,10 @@
         <v>-1.852</v>
       </c>
       <c r="H12">
-        <v>-1.023</v>
+        <v>-1.057</v>
       </c>
       <c r="I12">
-        <v>0.309</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13333,10 +13333,10 @@
         <v>0.121</v>
       </c>
       <c r="H13">
-        <v>0.06900000000000001</v>
+        <v>0.062</v>
       </c>
       <c r="I13">
-        <v>0.945</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13362,10 +13362,10 @@
         <v>-0.039</v>
       </c>
       <c r="H14">
-        <v>-1.334</v>
+        <v>-1.123</v>
       </c>
       <c r="I14">
-        <v>0.185</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13391,10 +13391,10 @@
         <v>-0.015</v>
       </c>
       <c r="H15">
-        <v>-0.495</v>
+        <v>-0.405</v>
       </c>
       <c r="I15">
-        <v>0.622</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13420,10 +13420,10 @@
         <v>-0.003</v>
       </c>
       <c r="H16">
-        <v>-0.106</v>
+        <v>-0.093</v>
       </c>
       <c r="I16">
-        <v>0.916</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13449,10 +13449,10 @@
         <v>0.027</v>
       </c>
       <c r="H17">
-        <v>0.9409999999999999</v>
+        <v>1.115</v>
       </c>
       <c r="I17">
-        <v>0.349</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13478,10 +13478,10 @@
         <v>0.027</v>
       </c>
       <c r="H18">
-        <v>0.929</v>
+        <v>1.044</v>
       </c>
       <c r="I18">
-        <v>0.355</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13507,10 +13507,10 @@
         <v>0.004</v>
       </c>
       <c r="H19">
-        <v>0.132</v>
+        <v>0.119</v>
       </c>
       <c r="I19">
-        <v>0.896</v>
+        <v>0.906</v>
       </c>
     </row>
   </sheetData>
